--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -137,9 +137,6 @@
     <t>VNĐ</t>
   </si>
   <si>
-    <t xml:space="preserve">THỦ TRƯỞNG ĐƠN VỊ </t>
-  </si>
-  <si>
     <t>Ngày …. tháng …. năm ….</t>
   </si>
   <si>
@@ -167,21 +164,6 @@
     <t>&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">BÁO CÁO THỰC HIỆN KINH PHÍ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI             </t>
-  </si>
-  <si>
-    <t>Đơn vị tính: USD/VNĐ</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ CẤP TRÊN</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ</t>
-  </si>
-  <si>
-    <t>Đơn vị tối mật</t>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -215,12 +197,6 @@
     <t xml:space="preserve">Thuyết minh báo cáo: </t>
   </si>
   <si>
-    <t>NGƯỜI LẬP</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG BAN TÀI CHÍNH</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -282,6 +258,28 @@
   </si>
   <si>
     <t>Ghi chú: (*) Trường hợp Quyết định có điều chỉnh thì ghi theo Quyết định điều chỉnh đến thời điểm lập kế hoạch</t>
+  </si>
+  <si>
+    <t>&lt;#sTenDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTenDonViCapDuoi&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị tính: &lt;#sDonViTinh&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;#txtTieuDe1&gt;    
+&lt;#txtTieuDe2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh3&gt;</t>
   </si>
 </sst>
 </file>
@@ -496,7 +494,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,9 +547,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -576,28 +571,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,6 +612,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -896,14 +903,14 @@
   </sheetPr>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -932,67 +939,65 @@
         <v>25</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-      <c r="F1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="F1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
     </row>
     <row r="2" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>47</v>
+      <c r="B2" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -1030,11 +1035,11 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="U4" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
     </row>
     <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
@@ -1062,50 +1067,50 @@
     </row>
     <row r="6" spans="1:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="B6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39" t="s">
+      <c r="V6" s="39"/>
+      <c r="W6" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="25" t="s">
         <v>30</v>
       </c>
@@ -1118,37 +1123,37 @@
       <c r="H7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="39" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42" t="s">
+      <c r="L7" s="42"/>
+      <c r="M7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="42"/>
+      <c r="S7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="42"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="25" t="s">
         <v>32</v>
       </c>
@@ -1215,140 +1220,140 @@
     </row>
     <row r="9" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="34">
+      <c r="B9" s="46"/>
+      <c r="C9" s="33">
         <v>1</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>2</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>3</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>4</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>5</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <v>6</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="34">
+      <c r="I9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="33">
         <v>9</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="33">
         <v>10</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>11</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="33">
         <v>12</v>
       </c>
-      <c r="O9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="34">
+      <c r="O9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="33">
         <v>15</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <v>16</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="33">
         <v>17</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="33">
         <v>18</v>
       </c>
-      <c r="U9" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>79</v>
+      <c r="U9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V10" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>70</v>
+      <c r="W10" s="31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1410,7 +1415,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1443,45 +1448,45 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="U14" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
+      <c r="U14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="45"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="I15" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
-      <c r="U15" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
+      <c r="U15" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
     </row>
     <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1558,22 +1563,22 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
@@ -1848,12 +1853,9 @@
       <c r="W30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I15:L15"/>
+  <mergeCells count="22">
     <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:D7"/>
@@ -1862,6 +1864,10 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="F2:W2"/>
     <mergeCell ref="U4:W4"/>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -89,27 +89,15 @@
     <t>Expression</t>
   </si>
   <si>
-    <t>fmHeader</t>
-  </si>
-  <si>
     <t>AltFormat</t>
   </si>
   <si>
-    <t>&lt;#if(&lt;#dt.depth&gt;="0";&lt;#format cell(ItemsFormat)&gt;;)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
-  </si>
-  <si>
     <t>ItemsFormat(Font.Style)</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>FormatHeader</t>
-  </si>
-  <si>
-    <t>&lt;#Row height(Autofit; 120)&gt;&lt;#format cell(fmHeader)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#IF(&lt;#To&gt;=1;;&lt;#fRow0&gt;)&gt;</t>
   </si>
   <si>
@@ -140,30 +128,6 @@
     <t>Ngày …. tháng …. năm ….</t>
   </si>
   <si>
-    <t>&lt;#dt.KinhPhiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -200,36 +164,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>&lt;#dt.depth&gt;&lt;#AltFormat&gt;  &lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.NCVTTCP&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.NhiemVuChi&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.TongKinhPhiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.TongKinhPhiDaChiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.QuyGiaiNganTheoQuy&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.KinhPhiDuocCapChuaChiUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>7 = 9 + 11</t>
   </si>
   <si>
@@ -249,12 +183,6 @@
   </si>
   <si>
     <t>21 = 5 - 7</t>
-  </si>
-  <si>
-    <t>&lt;#dt.HopDongUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.HopDongVND&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
     <t>Ghi chú: (*) Trường hợp Quyết định có điều chỉnh thì ghi theo Quyết định điều chỉnh đến thời điểm lập kế hoạch</t>
@@ -280,19 +208,131 @@
   </si>
   <si>
     <t>&lt;#ThuaLenh3&gt;</t>
+  </si>
+  <si>
+    <t>fmNumberBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeft</t>
+  </si>
+  <si>
+    <t>AltFormatLeft</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeft)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenter</t>
+  </si>
+  <si>
+    <t>AltFormatCenter</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenter)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBold</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenterBold</t>
+  </si>
+  <si>
+    <t>AltFormatCenterBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenterBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>Mẫu số 03/BC-NSĐB</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.depth&gt; &lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.depth&gt; &lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.HopDongUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.HopDongUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.HopDongVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.HopDongVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.NCVTTCP&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.NCVTTCP&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.NhiemVuChi&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.NhiemVuChi&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiDaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiDaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDuocCapChuaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDuocCapChuaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.QuyGiaiNganTheoQuy&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.QuyGiaiNganTheoQuy&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,12 +380,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -362,6 +396,31 @@
     <font>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -491,94 +550,123 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,35 +674,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -903,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,825 +1006,807 @@
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-    </row>
-    <row r="2" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="V1" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="50"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="B3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" spans="1:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39" t="s">
-        <v>52</v>
+      <c r="B6" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="42"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="54"/>
+      <c r="S7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="54"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="25" t="s">
-        <v>32</v>
+      <c r="B8" s="51"/>
+      <c r="C8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="33">
+      <c r="B9" s="51"/>
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="30">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <v>3</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <v>4</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="29">
         <v>6</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="33">
+      <c r="I9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="29">
         <v>9</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="29">
         <v>10</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="29">
         <v>11</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="29">
         <v>12</v>
       </c>
-      <c r="O9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="33">
+      <c r="O9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="29">
         <v>15</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="29">
         <v>16</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="29">
         <v>17</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="29">
         <v>18</v>
       </c>
-      <c r="U9" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="V9" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="U9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="W10" s="31" t="s">
-        <v>62</v>
+      <c r="C10" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="15"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="U14" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="U14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="U15" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="U15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
     </row>
     <row r="17" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
     </row>
     <row r="19" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="15"/>
     </row>
     <row r="20" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
     </row>
     <row r="22" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
     </row>
     <row r="24" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
     </row>
     <row r="25" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
     </row>
     <row r="26" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
     </row>
     <row r="27" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -1853,7 +1905,16 @@
       <c r="W30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="U15:W15"/>
@@ -1868,14 +1929,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O6:T6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1888,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,31 +2131,86 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="I11" s="43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>24</v>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="42"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -261,9 +261,6 @@
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.HopDongUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.HopDongUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.HopDongVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.HopDongVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.NCVTTCP&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.NCVTTCP&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
@@ -273,46 +270,67 @@
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiToYUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiDaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.TongKinhPhiDaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiToYUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDuocCapChuaChiUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDuocCapChuaChiUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.QuyGiaiNganTheoQuy&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.QuyGiaiNganTheoQuy&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBoldVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBoldVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBoldVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.HopDongVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.HopDongVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.TongKinhPhiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiToYVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.TongKinhPhiDaChiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiDaChiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiDaChiToYVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
   </si>
 </sst>
 </file>
@@ -553,7 +571,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,68 +641,78 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -973,8 +1001,8 @@
   </sheetPr>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,10 +1038,10 @@
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="50"/>
+      <c r="W1" s="37"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1021,26 +1049,26 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
@@ -1049,26 +1077,26 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
@@ -1111,58 +1139,58 @@
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
     </row>
     <row r="6" spans="1:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="53" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="52" t="s">
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52" t="s">
+      <c r="V6" s="40"/>
+      <c r="W6" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="29" t="s">
         <v>26</v>
       </c>
@@ -1175,37 +1203,37 @@
       <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="56" t="s">
+      <c r="N7" s="43"/>
+      <c r="O7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="53" t="s">
+      <c r="R7" s="43"/>
+      <c r="S7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="51"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="29" t="s">
         <v>28</v>
       </c>
@@ -1272,7 +1300,7 @@
     </row>
     <row r="9" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="29">
         <v>1</v>
       </c>
@@ -1348,64 +1376,64 @@
         <v>74</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="I10" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="J10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="L10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="N10" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="P10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="R10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="25" t="s">
+      <c r="V10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1500,41 +1528,41 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
-      <c r="U15" s="34" t="s">
+      <c r="U15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
     </row>
     <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1615,15 +1643,15 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1906,15 +1934,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="U15:W15"/>
@@ -1929,6 +1948,15 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O6:T6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1941,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,51 +2159,51 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="33" t="s">
         <v>58</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="42" t="s">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="42"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="52" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" s="39" t="s">
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H14" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="55" t="s">
         <v>63</v>
       </c>
       <c r="M14" s="13" t="s">
@@ -2185,32 +2213,60 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H15" s="39" t="s">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H16" s="39" t="s">
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="52" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\tuananh\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$10:$V$10</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$13:$W$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$X$19</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$13:$W$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$X$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$5:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>&lt;#if(or(&lt;#dt.isTitle&gt;="font-bold-red",&lt;#dt.isTitle&gt;="font-bold");&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.KinhPhiDuocCapChuaChiVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
   </si>
 </sst>
 </file>
@@ -571,7 +589,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -647,48 +665,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -713,6 +689,51 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -999,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,10 +1059,10 @@
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="37"/>
+      <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1049,26 +1070,26 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
@@ -1077,26 +1098,26 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
@@ -1139,58 +1160,58 @@
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
     </row>
     <row r="6" spans="1:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="41" t="s">
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="40" t="s">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40" t="s">
+      <c r="V6" s="49"/>
+      <c r="W6" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="48"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="29" t="s">
         <v>26</v>
       </c>
@@ -1203,33 +1224,33 @@
       <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="41" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="41" t="s">
+      <c r="L7" s="51"/>
+      <c r="M7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44" t="s">
+      <c r="N7" s="51"/>
+      <c r="O7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="41" t="s">
+      <c r="P7" s="54"/>
+      <c r="Q7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="41" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1528,11 +1549,11 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1547,12 +1568,12 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1568,201 +1589,207 @@
       <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="47"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="U16" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
     </row>
     <row r="17" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
     </row>
     <row r="18" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-    </row>
-    <row r="19" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-    </row>
-    <row r="23" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+    </row>
+    <row r="23" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="15"/>
     </row>
     <row r="24" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
@@ -1837,104 +1864,217 @@
       <c r="W26" s="17"/>
     </row>
     <row r="27" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
     </row>
     <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
     </row>
     <row r="29" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
     </row>
     <row r="30" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B19:H19"/>
+  <mergeCells count="32">
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B17:C21"/>
+    <mergeCell ref="I17:L21"/>
+    <mergeCell ref="U17:W21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="B6:B9"/>
@@ -1948,19 +2088,11 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U16:W16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -2159,7 +2291,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="33" t="s">
@@ -2168,12 +2300,12 @@
       <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="39" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="34" t="s">
@@ -2182,28 +2314,28 @@
       <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="53"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="38" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="41" t="s">
         <v>63</v>
       </c>
       <c r="M14" s="13" t="s">
@@ -2214,58 +2346,58 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="38" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="8:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="38" t="s">
         <v>90</v>
       </c>
     </row>
